--- a/src/main/resources/smartportfolio - deals - new.xlsx
+++ b/src/main/resources/smartportfolio - deals - new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="25">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -509,11 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,13 +1859,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="1">
-        <v>43203</v>
+        <v>43201</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D96">
-        <v>102.79067999999999</v>
+        <v>8937.405814824584</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,10 +1876,24 @@
         <v>43203</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D97">
-        <v>8937.405814824584</v>
+        <v>102.79067999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43207</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98">
+        <v>85.091970000000003</v>
       </c>
     </row>
   </sheetData>
